--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntn1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cntn1</t>
+  </si>
+  <si>
+    <t>Notch2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cntn1</t>
-  </si>
-  <si>
-    <t>Notch2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>0.34355</v>
       </c>
       <c r="I2">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263127</v>
+        <v>3.6221635</v>
       </c>
       <c r="N2">
-        <v>2.526254</v>
+        <v>7.244327</v>
       </c>
       <c r="O2">
-        <v>0.008853724851211806</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="P2">
-        <v>0.006359620920621169</v>
+        <v>0.01222004485606616</v>
       </c>
       <c r="Q2">
-        <v>0.1446490936166667</v>
+        <v>0.4147980901416667</v>
       </c>
       <c r="R2">
-        <v>0.8678945617000001</v>
+        <v>2.48878854085</v>
       </c>
       <c r="S2">
-        <v>0.00524458126269367</v>
+        <v>0.01770926137088299</v>
       </c>
       <c r="T2">
-        <v>0.00435955520914234</v>
+        <v>0.01222004485606616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.34355</v>
       </c>
       <c r="I3">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1160382908346841</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="P3">
-        <v>0.1250252669447441</v>
+        <v>0.08377575101749463</v>
       </c>
       <c r="Q3">
         <v>1.895793451472222</v>
@@ -641,10 +641,10 @@
         <v>17.06214106325</v>
       </c>
       <c r="S3">
-        <v>0.06873629529872817</v>
+        <v>0.08093841928217094</v>
       </c>
       <c r="T3">
-        <v>0.08570550990170234</v>
+        <v>0.08377575101749463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,10 +673,10 @@
         <v>0.34355</v>
       </c>
       <c r="I4">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.17386966666666</v>
+        <v>59.86223333333334</v>
       </c>
       <c r="N4">
-        <v>129.521609</v>
+        <v>179.5867</v>
       </c>
       <c r="O4">
-        <v>0.3026216388302571</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="P4">
-        <v>0.3260591905124801</v>
+        <v>0.302934631409225</v>
       </c>
       <c r="Q4">
-        <v>4.944127641327777</v>
+        <v>6.855223420555556</v>
       </c>
       <c r="R4">
-        <v>44.49714877194999</v>
+        <v>61.697010785</v>
       </c>
       <c r="S4">
-        <v>0.1792605714958025</v>
+        <v>0.292674788519288</v>
       </c>
       <c r="T4">
-        <v>0.2235153730434261</v>
+        <v>0.302934631409225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>0.34355</v>
       </c>
       <c r="I5">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.501953</v>
+        <v>17.159516</v>
       </c>
       <c r="N5">
-        <v>59.003906</v>
+        <v>34.319032</v>
       </c>
       <c r="O5">
-        <v>0.2067901125028462</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="P5">
-        <v>0.1485371126561165</v>
+        <v>0.05789083105397781</v>
       </c>
       <c r="Q5">
-        <v>3.378465317716667</v>
+        <v>1.965050573933333</v>
       </c>
       <c r="R5">
-        <v>20.2707919063</v>
+        <v>11.7903034436</v>
       </c>
       <c r="S5">
-        <v>0.1224939296813933</v>
+        <v>0.08389526144853719</v>
       </c>
       <c r="T5">
-        <v>0.1018230097852571</v>
+        <v>0.05789083105397781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -797,10 +797,10 @@
         <v>0.34355</v>
       </c>
       <c r="I6">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.697247666666667</v>
+        <v>77.18956900000001</v>
       </c>
       <c r="N6">
-        <v>5.091743</v>
+        <v>231.568707</v>
       </c>
       <c r="O6">
-        <v>0.0118966373492356</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="P6">
-        <v>0.01281801248220741</v>
+        <v>0.3906201344584861</v>
       </c>
       <c r="Q6">
-        <v>0.1943631452944445</v>
+        <v>8.839492143316667</v>
       </c>
       <c r="R6">
-        <v>1.74926830765</v>
+        <v>79.55542928985001</v>
       </c>
       <c r="S6">
-        <v>0.007047077064104045</v>
+        <v>0.3773905436700489</v>
       </c>
       <c r="T6">
-        <v>0.008786818237304738</v>
+        <v>0.3906201344584861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -859,10 +859,10 @@
         <v>0.34355</v>
       </c>
       <c r="I7">
-        <v>0.5923587361059505</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.6855055141740312</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.47523266666667</v>
+        <v>30.14676433333333</v>
       </c>
       <c r="N7">
-        <v>151.425698</v>
+        <v>90.440293</v>
       </c>
       <c r="O7">
-        <v>0.3537995956317652</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="P7">
-        <v>0.3812007964838307</v>
+        <v>0.1525586072047502</v>
       </c>
       <c r="Q7">
-        <v>5.780255394211112</v>
+        <v>3.452306962238889</v>
       </c>
       <c r="R7">
-        <v>52.02229854790001</v>
+        <v>31.07076266015</v>
       </c>
       <c r="S7">
-        <v>0.2095762813032288</v>
+        <v>0.1473917257090722</v>
       </c>
       <c r="T7">
-        <v>0.2613152479971985</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.0788065</v>
-      </c>
-      <c r="H8">
-        <v>0.157613</v>
-      </c>
-      <c r="I8">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J8">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.263127</v>
-      </c>
-      <c r="N8">
-        <v>2.526254</v>
-      </c>
-      <c r="O8">
-        <v>0.008853724851211806</v>
-      </c>
-      <c r="P8">
-        <v>0.006359620920621169</v>
-      </c>
-      <c r="Q8">
-        <v>0.09954261792550001</v>
-      </c>
-      <c r="R8">
-        <v>0.398170471702</v>
-      </c>
-      <c r="S8">
-        <v>0.003609143588518137</v>
-      </c>
-      <c r="T8">
-        <v>0.002000065711478829</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.0788065</v>
-      </c>
-      <c r="H9">
-        <v>0.157613</v>
-      </c>
-      <c r="I9">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J9">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>16.55473833333333</v>
-      </c>
-      <c r="N9">
-        <v>49.664215</v>
-      </c>
-      <c r="O9">
-        <v>0.1160382908346841</v>
-      </c>
-      <c r="P9">
-        <v>0.1250252669447441</v>
-      </c>
-      <c r="Q9">
-        <v>1.304620986465833</v>
-      </c>
-      <c r="R9">
-        <v>7.827725918795</v>
-      </c>
-      <c r="S9">
-        <v>0.04730199553595595</v>
-      </c>
-      <c r="T9">
-        <v>0.0393197570430418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.0788065</v>
-      </c>
-      <c r="H10">
-        <v>0.157613</v>
-      </c>
-      <c r="I10">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J10">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>43.17386966666666</v>
-      </c>
-      <c r="N10">
-        <v>129.521609</v>
-      </c>
-      <c r="O10">
-        <v>0.3026216388302571</v>
-      </c>
-      <c r="P10">
-        <v>0.3260591905124801</v>
-      </c>
-      <c r="Q10">
-        <v>3.402381559886166</v>
-      </c>
-      <c r="R10">
-        <v>20.414289359317</v>
-      </c>
-      <c r="S10">
-        <v>0.1233610673344546</v>
-      </c>
-      <c r="T10">
-        <v>0.102543817469054</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.0788065</v>
-      </c>
-      <c r="H11">
-        <v>0.157613</v>
-      </c>
-      <c r="I11">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J11">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>29.501953</v>
-      </c>
-      <c r="N11">
-        <v>59.003906</v>
-      </c>
-      <c r="O11">
-        <v>0.2067901125028462</v>
-      </c>
-      <c r="P11">
-        <v>0.1485371126561165</v>
-      </c>
-      <c r="Q11">
-        <v>2.3249456590945</v>
-      </c>
-      <c r="R11">
-        <v>9.299782636378</v>
-      </c>
-      <c r="S11">
-        <v>0.08429618282145296</v>
-      </c>
-      <c r="T11">
-        <v>0.04671410287085936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.0788065</v>
-      </c>
-      <c r="H12">
-        <v>0.157613</v>
-      </c>
-      <c r="I12">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J12">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.697247666666667</v>
-      </c>
-      <c r="N12">
-        <v>5.091743</v>
-      </c>
-      <c r="O12">
-        <v>0.0118966373492356</v>
-      </c>
-      <c r="P12">
-        <v>0.01281801248220741</v>
-      </c>
-      <c r="Q12">
-        <v>0.1337541482431667</v>
-      </c>
-      <c r="R12">
-        <v>0.802524889459</v>
-      </c>
-      <c r="S12">
-        <v>0.004849560285131557</v>
-      </c>
-      <c r="T12">
-        <v>0.004031194244902669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.0788065</v>
-      </c>
-      <c r="H13">
-        <v>0.157613</v>
-      </c>
-      <c r="I13">
-        <v>0.4076412638940496</v>
-      </c>
-      <c r="J13">
-        <v>0.3144944858259688</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>50.47523266666667</v>
-      </c>
-      <c r="N13">
-        <v>151.425698</v>
-      </c>
-      <c r="O13">
-        <v>0.3537995956317652</v>
-      </c>
-      <c r="P13">
-        <v>0.3812007964838307</v>
-      </c>
-      <c r="Q13">
-        <v>3.977776423145667</v>
-      </c>
-      <c r="R13">
-        <v>23.866658538874</v>
-      </c>
-      <c r="S13">
-        <v>0.1442233143285364</v>
-      </c>
-      <c r="T13">
-        <v>0.1198855484866321</v>
+        <v>0.1525586072047502</v>
       </c>
     </row>
   </sheetData>
